--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adm-Calcr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adm-Calcr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +525,619 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7362338024017</v>
+        <v>12.81352933333333</v>
       </c>
       <c r="H2">
-        <v>12.7362338024017</v>
+        <v>38.440588</v>
       </c>
       <c r="I2">
-        <v>0.3772260041988996</v>
+        <v>0.3471629989654041</v>
       </c>
       <c r="J2">
-        <v>0.3772260041988996</v>
+        <v>0.3561136181091343</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.65969937757445</v>
+        <v>0.06806366666666668</v>
       </c>
       <c r="N2">
-        <v>1.65969937757445</v>
+        <v>0.204191</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01337874269132675</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01993476300456479</v>
       </c>
       <c r="Q2">
-        <v>21.13831931448877</v>
+        <v>0.8721357893675556</v>
       </c>
       <c r="R2">
-        <v>21.13831931448877</v>
+        <v>7.849222104308</v>
       </c>
       <c r="S2">
-        <v>0.3772260041988996</v>
+        <v>0.004644604435107477</v>
       </c>
       <c r="T2">
-        <v>0.3772260041988996</v>
+        <v>0.007099040579703685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.3153615860542</v>
+        <v>12.81352933333333</v>
       </c>
       <c r="H3">
-        <v>18.3153615860542</v>
+        <v>38.440588</v>
       </c>
       <c r="I3">
-        <v>0.5424704644839665</v>
+        <v>0.3471629989654041</v>
       </c>
       <c r="J3">
-        <v>0.5424704644839665</v>
+        <v>0.3561136181091343</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.65969937757445</v>
+        <v>5.019385</v>
       </c>
       <c r="N3">
-        <v>1.65969937757445</v>
+        <v>10.03877</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9866212573086733</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9800652369954352</v>
       </c>
       <c r="Q3">
-        <v>30.39799422442514</v>
+        <v>64.31603693279332</v>
       </c>
       <c r="R3">
-        <v>30.39799422442514</v>
+        <v>385.89622159676</v>
       </c>
       <c r="S3">
-        <v>0.5424704644839665</v>
+        <v>0.3425183945302967</v>
       </c>
       <c r="T3">
-        <v>0.5424704644839665</v>
+        <v>0.3490145775294306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>20.812745</v>
+      </c>
+      <c r="H4">
+        <v>62.438235</v>
+      </c>
+      <c r="I4">
+        <v>0.563889525121381</v>
+      </c>
+      <c r="J4">
+        <v>0.5784278267074995</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.06806366666666668</v>
+      </c>
+      <c r="N4">
+        <v>0.204191</v>
+      </c>
+      <c r="O4">
+        <v>0.01337874269132675</v>
+      </c>
+      <c r="P4">
+        <v>0.01993476300456479</v>
+      </c>
+      <c r="Q4">
+        <v>1.416591738098333</v>
+      </c>
+      <c r="R4">
+        <v>12.749325642885</v>
+      </c>
+      <c r="S4">
+        <v>0.007544132862933388</v>
+      </c>
+      <c r="T4">
+        <v>0.01153082164065948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>20.812745</v>
+      </c>
+      <c r="H5">
+        <v>62.438235</v>
+      </c>
+      <c r="I5">
+        <v>0.563889525121381</v>
+      </c>
+      <c r="J5">
+        <v>0.5784278267074995</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5.019385</v>
+      </c>
+      <c r="N5">
+        <v>10.03877</v>
+      </c>
+      <c r="O5">
+        <v>0.9866212573086733</v>
+      </c>
+      <c r="P5">
+        <v>0.9800652369954352</v>
+      </c>
+      <c r="Q5">
+        <v>104.467180061825</v>
+      </c>
+      <c r="R5">
+        <v>626.8030803709499</v>
+      </c>
+      <c r="S5">
+        <v>0.5563453922584477</v>
+      </c>
+      <c r="T5">
+        <v>0.56689700506684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.4470076666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.341023</v>
+      </c>
+      <c r="I6">
+        <v>0.01211098972683725</v>
+      </c>
+      <c r="J6">
+        <v>0.01242323745145536</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.06806366666666668</v>
+      </c>
+      <c r="N6">
+        <v>0.204191</v>
+      </c>
+      <c r="O6">
+        <v>0.01337874269132675</v>
+      </c>
+      <c r="P6">
+        <v>0.01993476300456479</v>
+      </c>
+      <c r="Q6">
+        <v>0.03042498082144445</v>
+      </c>
+      <c r="R6">
+        <v>0.273824827393</v>
+      </c>
+      <c r="S6">
+        <v>0.0001620298152926572</v>
+      </c>
+      <c r="T6">
+        <v>0.0002476542943441962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4470076666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.341023</v>
+      </c>
+      <c r="I7">
+        <v>0.01211098972683725</v>
+      </c>
+      <c r="J7">
+        <v>0.01242323745145536</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.019385</v>
+      </c>
+      <c r="N7">
+        <v>10.03877</v>
+      </c>
+      <c r="O7">
+        <v>0.9866212573086733</v>
+      </c>
+      <c r="P7">
+        <v>0.9800652369954352</v>
+      </c>
+      <c r="Q7">
+        <v>2.243703576951667</v>
+      </c>
+      <c r="R7">
+        <v>13.46222146171</v>
+      </c>
+      <c r="S7">
+        <v>0.01194895991154459</v>
+      </c>
+      <c r="T7">
+        <v>0.01217558315711117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.158782</v>
+      </c>
+      <c r="I8">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J8">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.06806366666666668</v>
+      </c>
+      <c r="N8">
+        <v>0.204191</v>
+      </c>
+      <c r="O8">
+        <v>0.01337874269132675</v>
+      </c>
+      <c r="P8">
+        <v>0.01993476300456479</v>
+      </c>
+      <c r="Q8">
+        <v>0.003602428373555556</v>
+      </c>
+      <c r="R8">
+        <v>0.03242185536200001</v>
+      </c>
+      <c r="S8">
+        <v>1.918491937259741E-05</v>
+      </c>
+      <c r="T8">
+        <v>2.932316907656331E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.71127795705789</v>
-      </c>
-      <c r="H4">
-        <v>2.71127795705789</v>
-      </c>
-      <c r="I4">
-        <v>0.08030353131713384</v>
-      </c>
-      <c r="J4">
-        <v>0.08030353131713384</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.65969937757445</v>
-      </c>
-      <c r="N4">
-        <v>1.65969937757445</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>4.499906337760307</v>
-      </c>
-      <c r="R4">
-        <v>4.499906337760307</v>
-      </c>
-      <c r="S4">
-        <v>0.08030353131713384</v>
-      </c>
-      <c r="T4">
-        <v>0.08030353131713384</v>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.158782</v>
+      </c>
+      <c r="I9">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J9">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.019385</v>
+      </c>
+      <c r="N9">
+        <v>10.03877</v>
+      </c>
+      <c r="O9">
+        <v>0.9866212573086733</v>
+      </c>
+      <c r="P9">
+        <v>0.9800652369954352</v>
+      </c>
+      <c r="Q9">
+        <v>0.2656626630233333</v>
+      </c>
+      <c r="R9">
+        <v>1.59397597814</v>
+      </c>
+      <c r="S9">
+        <v>0.001414800307433111</v>
+      </c>
+      <c r="T9">
+        <v>0.001441633323852332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.7830505</v>
+      </c>
+      <c r="H10">
+        <v>5.566101</v>
+      </c>
+      <c r="I10">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J10">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.06806366666666668</v>
+      </c>
+      <c r="N10">
+        <v>0.204191</v>
+      </c>
+      <c r="O10">
+        <v>0.01337874269132675</v>
+      </c>
+      <c r="P10">
+        <v>0.01993476300456479</v>
+      </c>
+      <c r="Q10">
+        <v>0.1894246215485</v>
+      </c>
+      <c r="R10">
+        <v>1.136547729291</v>
+      </c>
+      <c r="S10">
+        <v>0.001008790658620629</v>
+      </c>
+      <c r="T10">
+        <v>0.00102792332078087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.7830505</v>
+      </c>
+      <c r="H11">
+        <v>5.566101</v>
+      </c>
+      <c r="I11">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J11">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.019385</v>
+      </c>
+      <c r="N11">
+        <v>10.03877</v>
+      </c>
+      <c r="O11">
+        <v>0.9866212573086733</v>
+      </c>
+      <c r="P11">
+        <v>0.9800652369954352</v>
+      </c>
+      <c r="Q11">
+        <v>13.9692019339425</v>
+      </c>
+      <c r="R11">
+        <v>55.87680773576999</v>
+      </c>
+      <c r="S11">
+        <v>0.07439371030095113</v>
+      </c>
+      <c r="T11">
+        <v>0.05053643791820098</v>
       </c>
     </row>
   </sheetData>
